--- a/Document/更新日记/策划/【Titan】脚本更新记录_陈伍宏.xlsx
+++ b/Document/更新日记/策划/【Titan】脚本更新记录_陈伍宏.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="281">
   <si>
     <t>更新日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -812,6 +812,379 @@
   <si>
     <t>Spell.csv;Spell.bin;Effect.bin;Effect.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整新地图阵营人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整怪物坐标和小地图打点坐标</t>
+  </si>
+  <si>
+    <t>MatchRoom.csv;MinimapStaticIcon;MinimapInfo.csvMinimapIcon.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整场景视野</t>
+  </si>
+  <si>
+    <t>PersonModel.csv</t>
+  </si>
+  <si>
+    <t>配置毒圈对应效果</t>
+  </si>
+  <si>
+    <t>buff.csv;buff.xml;Effect.bin;Effect.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整新地图怪物打点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinimapStaticIcon.csv</t>
+  </si>
+  <si>
+    <t>MinimapStaticIcon.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改小地图配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀怪物回复生命值和法力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正视角配置</t>
+  </si>
+  <si>
+    <t>PersonModel.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改毒圈中毒效果</t>
+  </si>
+  <si>
+    <t>Buff.csv
+Buff.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff.csv
+Buff.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moba_004Dark.png;Moba_004Dark.png.meta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改新地图报错</t>
+  </si>
+  <si>
+    <t>ChatDefaultChannel.csv</t>
+  </si>
+  <si>
+    <t>新地图新增召唤技能可以救治队友</t>
+  </si>
+  <si>
+    <t>调整救治时间</t>
+  </si>
+  <si>
+    <t>Buff.csv
+Buff.xml
+Condition.bin
+Condition.csv
+Effect.bin
+Effect.csv
+Spell.bin
+Spell.csv
+SpellLogic.csv
+SummonerSkill.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正濒死会被瞬杀</t>
+  </si>
+  <si>
+    <t>新增濒死光效</t>
+  </si>
+  <si>
+    <t>调整小地图大小</t>
+  </si>
+  <si>
+    <t>Moba_004Dark.png
+Moba_004Dark.png.meta
+Moba_004Light.png
+Moba_004Light.png.meta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330_jiansu_sf_Bind.asset
+330_jiansu_sf_Bind.asset.meta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图新增血包怪，新增回血技能</t>
+  </si>
+  <si>
+    <t>Buff.csv
+Buff.xml
+Condition.bin
+Condition.csv
+Effect.bin
+Effect.csv
+Spell.bin
+Spell.csv
+SpellLogic.csv
+TalentEffect.csv
+TalentLearn.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正濒死回血问题</t>
+  </si>
+  <si>
+    <t>战场加入出生飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff.csv
+Buff.xml
+Effect.bin
+Effect.csv
+Wing.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回退出生飞行脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整隐身神符效果</t>
+  </si>
+  <si>
+    <t>Buff.csv
+Buff.xml
+Effect.bin
+Effect.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增使用神符技能</t>
+  </si>
+  <si>
+    <t>Buff.csv
+Buff.xml
+Condition.bin
+Condition.csv
+Effect.bin
+Effect.csv
+Freeze.xml
+SlotMapedShortcut.csv
+Spell.bin
+Spell.csv
+SpellLogic.csv
+TalentEffect.csv
+TalentLearn.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增隐形状态下显示效果</t>
+  </si>
+  <si>
+    <t>取消中毒降低治疗量的效果</t>
+  </si>
+  <si>
+    <t>隐身延长30秒，增加30%移速</t>
+  </si>
+  <si>
+    <t>新增濒死状态不可选中效果</t>
+  </si>
+  <si>
+    <t>死亡掉落装备</t>
+  </si>
+  <si>
+    <t>Effect.bin
+Effect.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换商店模型</t>
+  </si>
+  <si>
+    <t>Monster.csv</t>
+  </si>
+  <si>
+    <t>调整怪物名称</t>
+  </si>
+  <si>
+    <t>新增NPC购买装备脚本</t>
+  </si>
+  <si>
+    <t>NPCConfig.csv</t>
+  </si>
+  <si>
+    <t>新增主动装备</t>
+  </si>
+  <si>
+    <t>Freeze.xml
+Spell.bin
+Spell.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增主动装备技能效果</t>
+  </si>
+  <si>
+    <t>Buff.csv
+Buff.xml
+Effect.bin
+Effect.csv
+Spell.bin
+Spell.csv
+SpellLogic.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动装备技能天赋学习</t>
+  </si>
+  <si>
+    <t>TalentEffect.csv
+TalentLearn.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增死亡掉落装备BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整主动装备</t>
+  </si>
+  <si>
+    <t>调整商店可购买装备</t>
+  </si>
+  <si>
+    <t>修正掉落宝箱不能点击的问题</t>
+  </si>
+  <si>
+    <t>配置飞行免摔伤效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增进化技能</t>
+  </si>
+  <si>
+    <t>Spell.bin
+Spell.csv
+TalentEffect.csv
+TalentLearn.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3072状态获得增加条件</t>
+  </si>
+  <si>
+    <t>队伍全部濒死状态不会死亡的问题</t>
+  </si>
+  <si>
+    <t>新增每秒回复3%魔法值效果</t>
+  </si>
+  <si>
+    <t>修正主动技能按键问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlotMapedShortcut.csv</t>
+  </si>
+  <si>
+    <t>修正索罗斯假死效果与新地图区分开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整小地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整小地图怪物打点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改吃鸡地图假死会被移除</t>
+  </si>
+  <si>
+    <t>屏蔽选取巨盾勇士等肉盾英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正复活祭坛坐标</t>
+  </si>
+  <si>
+    <t>吃鸡地图禁选英雄</t>
+  </si>
+  <si>
+    <t>取消吃鸡地图所有天赋学习的主动技能，新增晕眩技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整摩托车玩法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整魔王配置</t>
+  </si>
+  <si>
+    <t>Buff.csv
+Buff.xml
+Effect.bin
+Effect.csv
+PersonModel.csv
+Spell.bin
+Spell.csv
+SpellLogic.csv
+TalentEffect.csv
+TalentLearn.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff.csv
+Buff.xml
+Effect.bin
+Effect.csv
+PersonModel.csv
+Spell.bin
+Spell.csv
+SpellLogic.csv
+TalentEffect.csv
+TalentLearn.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大龙禁止相关天赋等效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整状态文字提示，调整魔王时间</t>
+  </si>
+  <si>
+    <t>Buff.csv
+Buff.xml
+Effect.bin
+Effect.csv
+SystemMessage.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整时空大击中龙母大后导致BUG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整宇宙战警</t>
+  </si>
+  <si>
+    <t>调整所有职业的天赋描述</t>
   </si>
 </sst>
 </file>
@@ -924,7 +1297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -969,6 +1342,18 @@
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1271,10 +1656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q186"/>
+  <dimension ref="A1:Q302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="H176" sqref="H176"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="D264" sqref="D264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1282,7 +1667,7 @@
     <col min="1" max="1" width="9" style="14"/>
     <col min="2" max="2" width="9" style="8"/>
     <col min="3" max="3" width="52.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" style="18" customWidth="1"/>
     <col min="5" max="7" width="9" style="8"/>
     <col min="8" max="8" width="102.125" style="8" customWidth="1"/>
     <col min="9" max="16384" width="9" style="8"/>
@@ -1298,7 +1683,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1326,7 +1711,7 @@
       <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1356,7 +1741,7 @@
     <row r="3" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="D3" s="16"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
     </row>
@@ -1370,7 +1755,7 @@
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1389,6 +1774,7 @@
     </row>
     <row r="5" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
+      <c r="D5" s="17"/>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
     </row>
@@ -1402,7 +1788,7 @@
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1429,7 +1815,7 @@
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -1456,7 +1842,7 @@
       <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1483,6 +1869,7 @@
       <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="D9" s="17"/>
       <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1499,6 +1886,7 @@
     </row>
     <row r="10" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
+      <c r="D10" s="17"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
     </row>
@@ -1512,7 +1900,7 @@
       <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1539,7 +1927,7 @@
       <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1558,6 +1946,7 @@
     </row>
     <row r="13" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
+      <c r="D13" s="17"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
     </row>
@@ -1571,7 +1960,7 @@
       <c r="C14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1590,6 +1979,7 @@
     </row>
     <row r="15" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
+      <c r="D15" s="17"/>
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
     </row>
@@ -1603,7 +1993,7 @@
       <c r="C16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -1622,6 +2012,7 @@
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
+      <c r="D17" s="17"/>
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
     </row>
@@ -1635,7 +2026,7 @@
       <c r="C18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -1654,6 +2045,7 @@
     </row>
     <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
+      <c r="D19" s="17"/>
       <c r="G19" s="6"/>
       <c r="H19" s="7"/>
     </row>
@@ -1667,7 +2059,7 @@
       <c r="C20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1686,6 +2078,7 @@
     </row>
     <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
+      <c r="D21" s="17"/>
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
     </row>
@@ -1699,7 +2092,7 @@
       <c r="C22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="17" t="s">
         <v>65</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -1718,6 +2111,7 @@
     </row>
     <row r="23" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
+      <c r="D23" s="17"/>
       <c r="G23" s="6"/>
       <c r="H23" s="7"/>
     </row>
@@ -1731,7 +2125,7 @@
       <c r="C24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -1758,7 +2152,7 @@
       <c r="C25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -1785,7 +2179,7 @@
       <c r="C26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -1804,6 +2198,7 @@
     </row>
     <row r="27" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="12"/>
+      <c r="D27" s="17"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
     </row>
@@ -1817,7 +2212,7 @@
       <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -1844,7 +2239,7 @@
       <c r="C29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -1871,7 +2266,7 @@
       <c r="C30" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -1891,6 +2286,7 @@
     <row r="31" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="12"/>
       <c r="C31" s="9"/>
+      <c r="D31" s="17"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
     </row>
@@ -1904,7 +2300,7 @@
       <c r="C32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="17" t="s">
         <v>44</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -1931,7 +2327,7 @@
       <c r="C33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="5" t="s">
@@ -1950,6 +2346,7 @@
     </row>
     <row r="34" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="12"/>
+      <c r="D34" s="17"/>
       <c r="G34" s="6"/>
       <c r="H34" s="7"/>
     </row>
@@ -1963,7 +2360,7 @@
       <c r="C35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -1983,7 +2380,7 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="12"/>
       <c r="B36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
@@ -1999,7 +2396,7 @@
       <c r="C37" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="17" t="s">
         <v>51</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -2026,7 +2423,7 @@
       <c r="C38" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -2053,7 +2450,7 @@
       <c r="C39" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -2080,7 +2477,7 @@
       <c r="C40" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E40" s="5" t="s">
@@ -2107,7 +2504,7 @@
       <c r="C41" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="17" t="s">
         <v>53</v>
       </c>
       <c r="E41" s="5" t="s">
@@ -2134,7 +2531,7 @@
       <c r="C42" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E42" s="5" t="s">
@@ -2161,7 +2558,7 @@
       <c r="C43" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E43" s="5" t="s">
@@ -2181,7 +2578,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
       <c r="B44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="6"/>
@@ -2197,7 +2594,7 @@
       <c r="C45" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="17" t="s">
         <v>58</v>
       </c>
       <c r="E45" s="5" t="s">
@@ -2224,7 +2621,7 @@
       <c r="C46" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -2244,7 +2641,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="12"/>
       <c r="B47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="D47" s="17"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
@@ -2260,7 +2657,7 @@
       <c r="C48" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="17" t="s">
         <v>62</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -2289,7 +2686,7 @@
       <c r="C49" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E49" s="5" t="s">
@@ -2309,7 +2706,7 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="12"/>
       <c r="B50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="6"/>
@@ -2325,7 +2722,7 @@
       <c r="C51" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E51" s="5" t="s">
@@ -2345,7 +2742,7 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="12"/>
       <c r="B52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="D52" s="17"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
@@ -2361,7 +2758,7 @@
       <c r="C53" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E53" s="5" t="s">
@@ -2390,7 +2787,7 @@
       <c r="C54" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E54" s="5" t="s">
@@ -2410,7 +2807,7 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="12"/>
       <c r="B55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="D55" s="17"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
@@ -2426,7 +2823,7 @@
       <c r="C56" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E56" s="5" t="s">
@@ -2455,7 +2852,7 @@
       <c r="C57" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E57" s="5" t="s">
@@ -2475,7 +2872,7 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="12"/>
       <c r="B58" s="5"/>
-      <c r="D58" s="5"/>
+      <c r="D58" s="17"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="6"/>
@@ -2491,7 +2888,7 @@
       <c r="C59" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="17" t="s">
         <v>73</v>
       </c>
       <c r="E59" s="5" t="s">
@@ -2520,7 +2917,7 @@
       <c r="C60" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E60" s="5" t="s">
@@ -2540,7 +2937,7 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="12"/>
       <c r="B61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="D61" s="17"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
@@ -2556,7 +2953,7 @@
       <c r="C62" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="17" t="s">
         <v>73</v>
       </c>
       <c r="E62" s="5" t="s">
@@ -2576,7 +2973,7 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="12"/>
       <c r="B63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="D63" s="17"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="6"/>
@@ -2592,7 +2989,7 @@
       <c r="C64" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="17" t="s">
         <v>73</v>
       </c>
       <c r="E64" s="5" t="s">
@@ -2621,7 +3018,7 @@
       <c r="C65" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E65" s="5" t="s">
@@ -2650,7 +3047,7 @@
       <c r="C66" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E66" s="5" t="s">
@@ -2679,7 +3076,7 @@
       <c r="C67" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="17" t="s">
         <v>140</v>
       </c>
       <c r="E67" s="5" t="s">
@@ -2699,7 +3096,7 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="12"/>
       <c r="B68" s="5"/>
-      <c r="D68" s="5"/>
+      <c r="D68" s="17"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="6"/>
@@ -2715,7 +3112,7 @@
       <c r="C69" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E69" s="5" t="s">
@@ -2744,7 +3141,7 @@
       <c r="C70" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E70" s="5" t="s">
@@ -2764,7 +3161,7 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="12"/>
       <c r="B71" s="5"/>
-      <c r="D71" s="5"/>
+      <c r="D71" s="17"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="6"/>
@@ -2780,7 +3177,7 @@
       <c r="C72" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="17" t="s">
         <v>86</v>
       </c>
       <c r="E72" s="5" t="s">
@@ -2809,7 +3206,7 @@
       <c r="C73" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E73" s="5" t="s">
@@ -2829,7 +3226,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="12"/>
       <c r="B74" s="5"/>
-      <c r="D74" s="5"/>
+      <c r="D74" s="17"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="6"/>
@@ -2845,7 +3242,7 @@
       <c r="C75" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="17" t="s">
         <v>73</v>
       </c>
       <c r="E75" s="5" t="s">
@@ -2872,7 +3269,7 @@
       <c r="C76" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="17" t="s">
         <v>138</v>
       </c>
       <c r="E76" s="5" t="s">
@@ -2892,7 +3289,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="12"/>
       <c r="B77" s="5"/>
-      <c r="D77" s="5"/>
+      <c r="D77" s="17"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="6"/>
@@ -2908,7 +3305,7 @@
       <c r="C78" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="17" t="s">
         <v>89</v>
       </c>
       <c r="E78" s="5" t="s">
@@ -2937,7 +3334,7 @@
       <c r="C79" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="17" t="s">
         <v>90</v>
       </c>
       <c r="E79" s="5" t="s">
@@ -2966,7 +3363,7 @@
       <c r="C80" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="17" t="s">
         <v>151</v>
       </c>
       <c r="E80" s="5" t="s">
@@ -2995,7 +3392,7 @@
       <c r="C81" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="17" t="s">
         <v>153</v>
       </c>
       <c r="E81" s="5" t="s">
@@ -3015,7 +3412,7 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="12"/>
       <c r="B82" s="5"/>
-      <c r="D82" s="5"/>
+      <c r="D82" s="17"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="6"/>
@@ -3031,7 +3428,7 @@
       <c r="C83" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="17" t="s">
         <v>90</v>
       </c>
       <c r="E83" s="5" t="s">
@@ -3060,7 +3457,7 @@
       <c r="C84" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="17" t="s">
         <v>73</v>
       </c>
       <c r="E84" s="5" t="s">
@@ -3089,7 +3486,7 @@
       <c r="C85" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="17" t="s">
         <v>95</v>
       </c>
       <c r="E85" s="5" t="s">
@@ -3118,7 +3515,7 @@
       <c r="C86" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="17" t="s">
         <v>106</v>
       </c>
       <c r="E86" s="5" t="s">
@@ -3147,7 +3544,7 @@
       <c r="C87" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E87" s="5" t="s">
@@ -3176,7 +3573,7 @@
       <c r="C88" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="17" t="s">
         <v>99</v>
       </c>
       <c r="E88" s="5" t="s">
@@ -3205,7 +3602,7 @@
       <c r="C89" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="17" t="s">
         <v>149</v>
       </c>
       <c r="E89" s="5" t="s">
@@ -3234,7 +3631,7 @@
       <c r="C90" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="17" t="s">
         <v>136</v>
       </c>
       <c r="E90" s="5" t="s">
@@ -3254,7 +3651,7 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="12"/>
       <c r="B91" s="5"/>
-      <c r="D91" s="5"/>
+      <c r="D91" s="17"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="6"/>
@@ -3270,7 +3667,7 @@
       <c r="C92" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E92" s="5" t="s">
@@ -3297,7 +3694,7 @@
       <c r="C93" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="17" t="s">
         <v>134</v>
       </c>
       <c r="E93" s="5" t="s">
@@ -3325,7 +3722,7 @@
       <c r="C94" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E94" s="5" t="s">
@@ -3345,7 +3742,7 @@
     <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="12"/>
       <c r="B95" s="5"/>
-      <c r="D95" s="5"/>
+      <c r="D95" s="17"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="6"/>
@@ -3361,7 +3758,7 @@
       <c r="C96" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="17" t="s">
         <v>90</v>
       </c>
       <c r="E96" s="5" t="s">
@@ -3381,7 +3778,7 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="12"/>
       <c r="B97" s="5"/>
-      <c r="D97" s="5"/>
+      <c r="D97" s="17"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="6"/>
@@ -3397,7 +3794,7 @@
       <c r="C98" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E98" s="5" t="s">
@@ -3426,7 +3823,7 @@
       <c r="C99" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="17" t="s">
         <v>86</v>
       </c>
       <c r="E99" s="5" t="s">
@@ -3450,7 +3847,7 @@
       <c r="A100" s="12"/>
       <c r="B100" s="5"/>
       <c r="C100" s="10"/>
-      <c r="D100" s="5"/>
+      <c r="D100" s="17"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="6"/>
@@ -3466,7 +3863,7 @@
       <c r="C101" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="17" t="s">
         <v>107</v>
       </c>
       <c r="E101" s="5" t="s">
@@ -3495,7 +3892,7 @@
       <c r="C102" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E102" s="5" t="s">
@@ -3524,7 +3921,7 @@
       <c r="C103" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E103" s="5" t="s">
@@ -3553,7 +3950,7 @@
       <c r="C104" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E104" s="5" t="s">
@@ -3573,7 +3970,7 @@
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" s="12"/>
       <c r="B105" s="5"/>
-      <c r="D105" s="5"/>
+      <c r="D105" s="17"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="6"/>
@@ -3589,7 +3986,7 @@
       <c r="C106" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="17" t="s">
         <v>90</v>
       </c>
       <c r="E106" s="5" t="s">
@@ -3618,7 +4015,7 @@
       <c r="C107" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E107" s="5" t="s">
@@ -3647,7 +4044,7 @@
       <c r="C108" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="17" t="s">
         <v>148</v>
       </c>
       <c r="E108" s="5" t="s">
@@ -3667,7 +4064,7 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" s="12"/>
       <c r="B109" s="5"/>
-      <c r="D109" s="5"/>
+      <c r="D109" s="17"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="6"/>
@@ -3683,7 +4080,7 @@
       <c r="C110" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E110" s="5" t="s">
@@ -3712,7 +4109,7 @@
       <c r="C111" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="17" t="s">
         <v>116</v>
       </c>
       <c r="E111" s="5" t="s">
@@ -3741,7 +4138,7 @@
       <c r="C112" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E112" s="5" t="s">
@@ -3761,7 +4158,7 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" s="12"/>
       <c r="B113" s="5"/>
-      <c r="D113" s="5"/>
+      <c r="D113" s="17"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="6"/>
@@ -3777,7 +4174,7 @@
       <c r="C114" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E114" s="5" t="s">
@@ -3806,7 +4203,7 @@
       <c r="C115" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="17" t="s">
         <v>62</v>
       </c>
       <c r="E115" s="5" t="s">
@@ -3826,7 +4223,7 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116" s="12"/>
       <c r="B116" s="5"/>
-      <c r="D116" s="5"/>
+      <c r="D116" s="17"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="6"/>
@@ -3842,7 +4239,7 @@
       <c r="C117" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E117" s="5" t="s">
@@ -3871,7 +4268,7 @@
       <c r="C118" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E118" s="5" t="s">
@@ -3891,7 +4288,7 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" s="12"/>
       <c r="B119" s="5"/>
-      <c r="D119" s="5"/>
+      <c r="D119" s="17"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="6"/>
@@ -3907,7 +4304,7 @@
       <c r="C120" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E120" s="5" t="s">
@@ -3936,7 +4333,7 @@
       <c r="C121" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E121" s="5" t="s">
@@ -3965,7 +4362,7 @@
       <c r="C122" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D122" s="16" t="s">
         <v>146</v>
       </c>
       <c r="E122" s="5" t="s">
@@ -3986,7 +4383,7 @@
     <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123" s="12"/>
       <c r="B123" s="5"/>
-      <c r="D123" s="5"/>
+      <c r="D123" s="17"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="6"/>
@@ -4002,7 +4399,7 @@
       <c r="C124" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E124" s="5" t="s">
@@ -4022,7 +4419,7 @@
     <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125" s="12"/>
       <c r="B125" s="5"/>
-      <c r="D125" s="5"/>
+      <c r="D125" s="17"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="6"/>
@@ -4038,7 +4435,7 @@
       <c r="C126" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E126" s="5" t="s">
@@ -4067,7 +4464,7 @@
       <c r="C127" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D127" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E127" s="5" t="s">
@@ -4096,7 +4493,7 @@
       <c r="C128" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E128" s="5" t="s">
@@ -4125,7 +4522,7 @@
       <c r="C129" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D129" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E129" s="5" t="s">
@@ -4145,7 +4542,7 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A130" s="12"/>
       <c r="B130" s="5"/>
-      <c r="D130" s="5"/>
+      <c r="D130" s="17"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="6"/>
@@ -4161,7 +4558,7 @@
       <c r="C131" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D131" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E131" s="5" t="s">
@@ -4190,7 +4587,7 @@
       <c r="C132" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="17" t="s">
         <v>87</v>
       </c>
       <c r="E132" s="5" t="s">
@@ -4210,7 +4607,7 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A133" s="12"/>
       <c r="B133" s="5"/>
-      <c r="D133" s="5"/>
+      <c r="D133" s="17"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="6"/>
@@ -4226,7 +4623,7 @@
       <c r="C134" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="17" t="s">
         <v>132</v>
       </c>
       <c r="E134" s="5" t="s">
@@ -4253,7 +4650,7 @@
       <c r="C135" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D135" s="17" t="s">
         <v>142</v>
       </c>
       <c r="E135" s="5" t="s">
@@ -4280,7 +4677,7 @@
       <c r="C136" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136" s="17" t="s">
         <v>144</v>
       </c>
       <c r="E136" s="5" t="s">
@@ -4300,7 +4697,7 @@
     <row r="137" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A137" s="12"/>
       <c r="B137" s="5"/>
-      <c r="D137" s="5"/>
+      <c r="D137" s="17"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="6"/>
@@ -4316,7 +4713,7 @@
       <c r="C138" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="17" t="s">
         <v>154</v>
       </c>
       <c r="E138" s="5" t="s">
@@ -4345,7 +4742,7 @@
       <c r="C139" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="17" t="s">
         <v>157</v>
       </c>
       <c r="E139" s="5" t="s">
@@ -4365,7 +4762,7 @@
     <row r="140" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A140" s="12"/>
       <c r="B140" s="5"/>
-      <c r="D140" s="5"/>
+      <c r="D140" s="17"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="6"/>
@@ -4381,7 +4778,7 @@
       <c r="C141" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D141" s="17" t="s">
         <v>162</v>
       </c>
       <c r="E141" s="5" t="s">
@@ -4410,7 +4807,7 @@
       <c r="C142" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E142" s="5" t="s">
@@ -4439,7 +4836,7 @@
       <c r="C143" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D143" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E143" s="5" t="s">
@@ -4468,7 +4865,7 @@
       <c r="C144" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D144" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E144" s="5" t="s">
@@ -4497,7 +4894,7 @@
       <c r="C145" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D145" s="17" t="s">
         <v>163</v>
       </c>
       <c r="E145" s="5" t="s">
@@ -4517,7 +4914,7 @@
     <row r="146" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A146" s="12"/>
       <c r="B146" s="5"/>
-      <c r="D146" s="5"/>
+      <c r="D146" s="17"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="6"/>
@@ -4533,7 +4930,7 @@
       <c r="C147" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D147" s="17" t="s">
         <v>165</v>
       </c>
       <c r="E147" s="5" t="s">
@@ -4553,7 +4950,7 @@
     <row r="148" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A148" s="12"/>
       <c r="B148" s="5"/>
-      <c r="D148" s="5"/>
+      <c r="D148" s="17"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="6"/>
@@ -4569,7 +4966,7 @@
       <c r="C149" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D149" s="17" t="s">
         <v>163</v>
       </c>
       <c r="E149" s="5" t="s">
@@ -4598,7 +4995,7 @@
       <c r="C150" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D150" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E150" s="5" t="s">
@@ -4627,7 +5024,7 @@
       <c r="C151" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D151" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E151" s="5" t="s">
@@ -4647,7 +5044,7 @@
     <row r="152" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A152" s="12"/>
       <c r="B152" s="5"/>
-      <c r="D152" s="5"/>
+      <c r="D152" s="17"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="6"/>
@@ -4663,7 +5060,7 @@
       <c r="C153" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D153" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E153" s="5" t="s">
@@ -4692,7 +5089,7 @@
       <c r="C154" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D154" s="17" t="s">
         <v>163</v>
       </c>
       <c r="E154" s="5" t="s">
@@ -4721,7 +5118,7 @@
       <c r="C155" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D155" s="17" t="s">
         <v>107</v>
       </c>
       <c r="E155" s="5" t="s">
@@ -4750,7 +5147,7 @@
       <c r="C156" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D156" s="17" t="s">
         <v>163</v>
       </c>
       <c r="E156" s="5" t="s">
@@ -4770,7 +5167,7 @@
     <row r="157" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A157" s="12"/>
       <c r="B157" s="5"/>
-      <c r="D157" s="5"/>
+      <c r="D157" s="17"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="6"/>
@@ -4786,7 +5183,7 @@
       <c r="C158" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="D158" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E158" s="5" t="s">
@@ -4815,7 +5212,7 @@
       <c r="C159" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="17" t="s">
         <v>187</v>
       </c>
       <c r="E159" s="5" t="s">
@@ -4844,7 +5241,7 @@
       <c r="C160" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D160" s="17" t="s">
         <v>113</v>
       </c>
       <c r="E160" s="5" t="s">
@@ -4864,7 +5261,7 @@
     <row r="161" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A161" s="12"/>
       <c r="B161" s="5"/>
-      <c r="D161" s="5"/>
+      <c r="D161" s="17"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="6"/>
@@ -4880,7 +5277,7 @@
       <c r="C162" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D162" s="17" t="s">
         <v>180</v>
       </c>
       <c r="E162" s="5" t="s">
@@ -4909,7 +5306,7 @@
       <c r="C163" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="17" t="s">
         <v>179</v>
       </c>
       <c r="E163" s="5" t="s">
@@ -4929,7 +5326,7 @@
     <row r="164" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A164" s="12"/>
       <c r="B164" s="5"/>
-      <c r="D164" s="5"/>
+      <c r="D164" s="17"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="6"/>
@@ -4945,7 +5342,7 @@
       <c r="C165" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D165" s="5"/>
+      <c r="D165" s="17"/>
       <c r="E165" s="5" t="s">
         <v>17</v>
       </c>
@@ -4963,7 +5360,7 @@
     <row r="166" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A166" s="12"/>
       <c r="B166" s="5"/>
-      <c r="D166" s="5"/>
+      <c r="D166" s="17"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="6"/>
@@ -4979,7 +5376,7 @@
       <c r="C167" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="D167" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E167" s="5" t="s">
@@ -5008,7 +5405,7 @@
       <c r="C168" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D168" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E168" s="5" t="s">
@@ -5037,7 +5434,7 @@
       <c r="C169" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D169" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E169" s="5" t="s">
@@ -5066,7 +5463,7 @@
       <c r="C170" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E170" s="5" t="s">
@@ -5086,7 +5483,7 @@
     <row r="171" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A171" s="12"/>
       <c r="B171" s="5"/>
-      <c r="D171" s="5"/>
+      <c r="D171" s="17"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="6"/>
@@ -5102,7 +5499,7 @@
       <c r="C172" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D172" s="17" t="s">
         <v>189</v>
       </c>
       <c r="E172" s="5" t="s">
@@ -5130,7 +5527,7 @@
       <c r="C173" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173" s="17" t="s">
         <v>192</v>
       </c>
       <c r="E173" s="5" t="s">
@@ -5143,14 +5540,14 @@
         <v>11</v>
       </c>
       <c r="H173" s="7" t="str">
-        <f t="shared" ref="H173:H186" si="23">CONCATENATE(F173,"","【",E173,"】[",G173,"]:",C173,"。(修改文件:",D173,")")</f>
+        <f t="shared" ref="H173:H191" si="23">CONCATENATE(F173,"","【",E173,"】[",G173,"]:",C173,"。(修改文件:",D173,")")</f>
         <v>陈伍宏【全版本】[内部知晓]:陈伍宏：李小龙调整Q技能期间可以任意释放其他技能的BUG。(修改文件:Spell.csv;Spell.bin;Condition.bin;Condition.csv;Effect.bin;Effect.csv)</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A174" s="13"/>
       <c r="B174" s="5"/>
-      <c r="D174" s="5"/>
+      <c r="D174" s="17"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="6"/>
@@ -5166,7 +5563,7 @@
       <c r="C175" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="17" t="s">
         <v>193</v>
       </c>
       <c r="E175" s="5" t="s">
@@ -5188,13 +5585,13 @@
         <v>43040</v>
       </c>
       <c r="B176" s="5">
-        <f t="shared" ref="B176:B186" si="24">B175+1</f>
+        <f t="shared" ref="B176:B254" si="24">B175+1</f>
         <v>2</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="17" t="s">
         <v>195</v>
       </c>
       <c r="E176" s="5" t="s">
@@ -5212,262 +5609,3039 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A177" s="13">
-        <v>43040</v>
-      </c>
-      <c r="B177" s="5">
+      <c r="A177" s="13"/>
+      <c r="B177" s="5"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="7"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A178" s="13">
+        <v>43041</v>
+      </c>
+      <c r="B178" s="5">
+        <v>1</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D178" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H178" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>陈伍宏【全版本】[内部知晓]:调整新地图阵营人数。(修改文件:MatchRoom.csv)</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A179" s="13"/>
+      <c r="B179" s="5"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="7"/>
+    </row>
+    <row r="180" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A180" s="13">
+        <v>43042</v>
+      </c>
+      <c r="B180" s="5">
+        <v>1</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D180" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G180" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H180" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>陈伍宏【全版本】[内部知晓]:调整怪物坐标和小地图打点坐标。(修改文件:MatchRoom.csv;MinimapStaticIcon;MinimapInfo.csvMinimapIcon.csv)</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A181" s="13">
+        <v>43042</v>
+      </c>
+      <c r="B181" s="5">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D181" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H181" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>陈伍宏【全版本】[内部知晓]:调整场景视野。(修改文件:PersonModel.csv)</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A182" s="13"/>
+      <c r="B182" s="5"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="7"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A183" s="13">
+        <v>43045</v>
+      </c>
+      <c r="B183" s="5">
+        <v>1</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D183" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H183" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>陈伍宏【全版本】[内部知晓]:配置毒圈对应效果。(修改文件:buff.csv;buff.xml;Effect.bin;Effect.csv)</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A184" s="13">
+        <f t="shared" ref="A184:A191" si="25">A183</f>
+        <v>43045</v>
+      </c>
+      <c r="B184" s="5">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D184" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H184" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>陈伍宏【全版本】[内部知晓]:调整新地图怪物打点。(修改文件:MinimapStaticIcon.csv)</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A185" s="13">
+        <f t="shared" si="25"/>
+        <v>43045</v>
+      </c>
+      <c r="B185" s="5">
         <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="D177" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F177" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G177" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H177" s="7" t="str">
+      <c r="C185" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D185" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H185" s="7" t="str">
         <f t="shared" si="23"/>
-        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A178" s="13">
-        <v>43040</v>
-      </c>
-      <c r="B178" s="5">
+        <v>陈伍宏【全版本】[内部知晓]:修改小地图配置文件。(修改文件:Moba_004Dark.png;Moba_004Dark.png.meta)</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A186" s="13">
+        <f t="shared" si="25"/>
+        <v>43045</v>
+      </c>
+      <c r="B186" s="5">
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="D178" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F178" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G178" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H178" s="7" t="str">
+      <c r="C186" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D186" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H186" s="7" t="str">
         <f t="shared" si="23"/>
-        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A179" s="13">
-        <v>43040</v>
-      </c>
-      <c r="B179" s="5">
+        <v>陈伍宏【全版本】[内部知晓]:击杀怪物回复生命值和法力值。(修改文件:Buff.csv
+Buff.xml)</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A187" s="13"/>
+      <c r="B187" s="5"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="7"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A188" s="13">
+        <v>43046</v>
+      </c>
+      <c r="B188" s="5">
+        <v>1</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D188" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H188" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>陈伍宏【全版本】[内部知晓]:修正视角配置。(修改文件:PersonModel.csv)</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A189" s="13"/>
+      <c r="B189" s="5"/>
+      <c r="D189" s="17"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="7"/>
+    </row>
+    <row r="190" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A190" s="13">
+        <v>43047</v>
+      </c>
+      <c r="B190" s="5">
+        <v>1</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D190" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H190" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>陈伍宏【全版本】[内部知晓]:修改毒圈中毒效果。(修改文件:Buff.csv
+Buff.xml)</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A191" s="13">
+        <f t="shared" si="25"/>
+        <v>43047</v>
+      </c>
+      <c r="B191" s="5">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D191" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H191" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>陈伍宏【全版本】[内部知晓]:修改新地图报错。(修改文件:ChatDefaultChannel.csv)</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="A192" s="13">
+        <f t="shared" ref="A192:A279" si="26">A191</f>
+        <v>43047</v>
+      </c>
+      <c r="B192" s="5">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D192" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H192" s="7" t="str">
+        <f t="shared" ref="H192:H279" si="27">CONCATENATE(F192,"","【",E192,"】[",G192,"]:",C192,"。(修改文件:",D192,")")</f>
+        <v>陈伍宏【全版本】[内部知晓]:新地图新增召唤技能可以救治队友。(修改文件:Buff.csv
+Buff.xml
+Condition.bin
+Condition.csv
+Effect.bin
+Effect.csv
+Spell.bin
+Spell.csv
+SpellLogic.csv
+SummonerSkill.csv)</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A193" s="13">
+        <f t="shared" si="26"/>
+        <v>43047</v>
+      </c>
+      <c r="B193" s="5">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D193" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G193" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H193" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:调整救治时间。(修改文件:Buff.csv
+Buff.xml)</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A194" s="13"/>
+      <c r="B194" s="5"/>
+      <c r="D194" s="16"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="7"/>
+    </row>
+    <row r="195" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A195" s="13">
+        <v>43048</v>
+      </c>
+      <c r="B195" s="5">
+        <v>1</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D195" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G195" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H195" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:修正濒死会被瞬杀。(修改文件:Buff.csv
+Buff.xml)</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="A196" s="13">
+        <f t="shared" si="26"/>
+        <v>43048</v>
+      </c>
+      <c r="B196" s="5">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D196" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H196" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:新增濒死光效。(修改文件:330_jiansu_sf_Bind.asset
+330_jiansu_sf_Bind.asset.meta)</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A197" s="13"/>
+      <c r="B197" s="5"/>
+      <c r="D197" s="16"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="7"/>
+    </row>
+    <row r="198" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A198" s="13">
+        <v>43049</v>
+      </c>
+      <c r="B198" s="5">
+        <v>1</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D198" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H198" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:调整小地图大小。(修改文件:Moba_004Dark.png
+Moba_004Dark.png.meta
+Moba_004Light.png
+Moba_004Light.png.meta)</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="132" x14ac:dyDescent="0.15">
+      <c r="A199" s="13">
+        <f t="shared" si="26"/>
+        <v>43049</v>
+      </c>
+      <c r="B199" s="5">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D199" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G199" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H199" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:地图新增血包怪，新增回血技能。(修改文件:Buff.csv
+Buff.xml
+Condition.bin
+Condition.csv
+Effect.bin
+Effect.csv
+Spell.bin
+Spell.csv
+SpellLogic.csv
+TalentEffect.csv
+TalentLearn.csv)</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A200" s="13"/>
+      <c r="B200" s="5"/>
+      <c r="D200" s="16"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="7"/>
+    </row>
+    <row r="201" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A201" s="13">
+        <v>43050</v>
+      </c>
+      <c r="B201" s="5">
+        <v>1</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D201" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G201" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H201" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:修正濒死回血问题。(修改文件:Buff.csv
+Buff.xml)</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A202" s="13"/>
+      <c r="B202" s="5"/>
+      <c r="D202" s="16"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="7"/>
+    </row>
+    <row r="203" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="A203" s="13">
+        <v>43052</v>
+      </c>
+      <c r="B203" s="5">
+        <v>1</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D203" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H203" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:战场加入出生飞行。(修改文件:Buff.csv
+Buff.xml
+Effect.bin
+Effect.csv
+Wing.csv)</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="A204" s="13">
+        <f t="shared" si="26"/>
+        <v>43052</v>
+      </c>
+      <c r="B204" s="5">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D204" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G204" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H204" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:回退出生飞行脚本。(修改文件:Buff.csv
+Buff.xml
+Effect.bin
+Effect.csv
+Wing.csv)</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A205" s="13"/>
+      <c r="B205" s="5"/>
+      <c r="D205" s="16"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="7"/>
+    </row>
+    <row r="206" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A206" s="13">
+        <v>43054</v>
+      </c>
+      <c r="B206" s="5">
+        <v>1</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D206" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H206" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:调整隐身神符效果。(修改文件:Buff.csv
+Buff.xml
+Effect.bin
+Effect.csv)</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="156" x14ac:dyDescent="0.15">
+      <c r="A207" s="13">
+        <f t="shared" si="26"/>
+        <v>43054</v>
+      </c>
+      <c r="B207" s="5">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D207" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G207" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H207" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:新增使用神符技能。(修改文件:Buff.csv
+Buff.xml
+Condition.bin
+Condition.csv
+Effect.bin
+Effect.csv
+Freeze.xml
+SlotMapedShortcut.csv
+Spell.bin
+Spell.csv
+SpellLogic.csv
+TalentEffect.csv
+TalentLearn.csv)</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A208" s="13">
+        <f t="shared" si="26"/>
+        <v>43054</v>
+      </c>
+      <c r="B208" s="5">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D208" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H208" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:新增隐形状态下显示效果。(修改文件:Buff.csv
+Buff.xml
+Effect.bin
+Effect.csv)</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A209" s="13">
+        <f t="shared" si="26"/>
+        <v>43054</v>
+      </c>
+      <c r="B209" s="5">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D209" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H209" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:取消中毒降低治疗量的效果。(修改文件:Buff.csv
+Buff.xml)</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A210" s="13"/>
+      <c r="B210" s="5"/>
+      <c r="D210" s="16"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="7"/>
+    </row>
+    <row r="211" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="13">
+        <v>43055</v>
+      </c>
+      <c r="B211" s="5">
+        <v>1</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D211" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G211" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H211" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:隐身延长30秒，增加30%移速。(修改文件:Buff.csv
+Buff.xml
+Effect.bin
+Effect.csv)</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="13"/>
+      <c r="B212" s="5"/>
+      <c r="D212" s="16"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="7"/>
+    </row>
+    <row r="213" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A213" s="13">
+        <v>43059</v>
+      </c>
+      <c r="B213" s="5">
+        <v>1</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D213" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G213" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H213" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:新增濒死状态不可选中效果。(修改文件:Buff.csv
+Buff.xml
+Effect.bin
+Effect.csv)</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A214" s="13">
+        <f t="shared" si="26"/>
+        <v>43059</v>
+      </c>
+      <c r="B214" s="5">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D214" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G214" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H214" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:死亡掉落装备。(修改文件:Effect.bin
+Effect.csv)</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A215" s="13">
+        <f t="shared" si="26"/>
+        <v>43059</v>
+      </c>
+      <c r="B215" s="5">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D215" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G215" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H215" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:替换商店模型。(修改文件:Monster.csv)</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A216" s="13"/>
+      <c r="B216" s="5"/>
+      <c r="D216" s="17"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="7"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A217" s="13">
+        <v>43060</v>
+      </c>
+      <c r="B217" s="5">
+        <v>1</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D217" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G217" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H217" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:调整怪物名称。(修改文件:Monster.csv)</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A218" s="13">
+        <f t="shared" si="26"/>
+        <v>43060</v>
+      </c>
+      <c r="B218" s="5">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D218" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H218" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:新增NPC购买装备脚本。(修改文件:NPCConfig.csv)</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A219" s="13"/>
+      <c r="B219" s="5"/>
+      <c r="D219" s="17"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="6"/>
+      <c r="H219" s="7"/>
+    </row>
+    <row r="220" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="A220" s="13">
+        <v>43061</v>
+      </c>
+      <c r="B220" s="5">
+        <v>1</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D220" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G220" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H220" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:新增主动装备。(修改文件:Freeze.xml
+Spell.bin
+Spell.csv)</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="84" x14ac:dyDescent="0.15">
+      <c r="A221" s="13">
+        <f t="shared" si="26"/>
+        <v>43061</v>
+      </c>
+      <c r="B221" s="5">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D221" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G221" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H221" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:新增主动装备技能效果。(修改文件:Buff.csv
+Buff.xml
+Effect.bin
+Effect.csv
+Spell.bin
+Spell.csv
+SpellLogic.csv)</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A222" s="13">
+        <f t="shared" si="26"/>
+        <v>43061</v>
+      </c>
+      <c r="B222" s="5">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D222" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G222" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H222" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:主动装备技能天赋学习。(修改文件:TalentEffect.csv
+TalentLearn.csv)</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A223" s="13">
+        <f t="shared" si="26"/>
+        <v>43061</v>
+      </c>
+      <c r="B223" s="5">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D223" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G223" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H223" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:新增死亡掉落装备BUFF。(修改文件:Buff.csv
+Buff.xml)</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="84" x14ac:dyDescent="0.15">
+      <c r="A224" s="13">
+        <f t="shared" si="26"/>
+        <v>43061</v>
+      </c>
+      <c r="B224" s="5">
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="D179" s="5" t="s">
+      <c r="C224" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D224" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G224" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H224" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:调整主动装备。(修改文件:Buff.csv
+Buff.xml
+Effect.bin
+Effect.csv
+Spell.bin
+Spell.csv
+SpellLogic.csv)</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A225" s="13"/>
+      <c r="B225" s="5"/>
+      <c r="D225" s="16"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="6"/>
+      <c r="H225" s="7"/>
+    </row>
+    <row r="226" spans="1:8" ht="84" x14ac:dyDescent="0.15">
+      <c r="A226" s="13">
+        <v>43062</v>
+      </c>
+      <c r="B226" s="5">
+        <v>1</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D226" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G226" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H226" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:调整主动装备。(修改文件:Buff.csv
+Buff.xml
+Effect.bin
+Effect.csv
+Spell.bin
+Spell.csv
+SpellLogic.csv)</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A227" s="13">
+        <f t="shared" si="26"/>
+        <v>43062</v>
+      </c>
+      <c r="B227" s="5">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D227" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G227" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H227" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:调整商店可购买装备。(修改文件:NPCConfig.csv)</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A228" s="13">
+        <f t="shared" si="26"/>
+        <v>43062</v>
+      </c>
+      <c r="B228" s="5">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D228" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G228" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H228" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:修正掉落宝箱不能点击的问题。(修改文件:Effect.bin
+Effect.csv)</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A229" s="13"/>
+      <c r="B229" s="5"/>
+      <c r="D229" s="16"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="7"/>
+    </row>
+    <row r="230" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="13">
+        <v>43063</v>
+      </c>
+      <c r="B230" s="5">
+        <v>1</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D230" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G230" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H230" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:配置飞行免摔伤效果。(修改文件:Buff.csv
+Buff.xml)</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A231" s="13">
+        <f t="shared" si="26"/>
+        <v>43063</v>
+      </c>
+      <c r="B231" s="5">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D231" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G231" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H231" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:新增进化技能。(修改文件:Spell.bin
+Spell.csv
+TalentEffect.csv
+TalentLearn.csv)</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A232" s="13">
+        <f t="shared" si="26"/>
+        <v>43063</v>
+      </c>
+      <c r="B232" s="5">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D232" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G232" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H232" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:3072状态获得增加条件。(修改文件:Buff.csv
+Buff.xml)</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A233" s="13"/>
+      <c r="B233" s="5"/>
+      <c r="D233" s="16"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="6"/>
+      <c r="H233" s="7"/>
+    </row>
+    <row r="234" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A234" s="13">
+        <v>43066</v>
+      </c>
+      <c r="B234" s="5">
+        <v>1</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D234" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G234" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H234" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:队伍全部濒死状态不会死亡的问题。(修改文件:Buff.csv
+Buff.xml)</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A235" s="13"/>
+      <c r="B235" s="5"/>
+      <c r="D235" s="16"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="6"/>
+      <c r="H235" s="7"/>
+    </row>
+    <row r="236" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A236" s="13">
+        <v>43068</v>
+      </c>
+      <c r="B236" s="5">
+        <v>1</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D236" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G236" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H236" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:新增每秒回复3%魔法值效果。(修改文件:Buff.csv
+Buff.xml)</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A237" s="13">
+        <f t="shared" si="26"/>
+        <v>43068</v>
+      </c>
+      <c r="B237" s="5">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D237" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G237" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H237" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:修正主动技能按键问题。(修改文件:SlotMapedShortcut.csv)</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A238" s="13">
+        <f t="shared" si="26"/>
+        <v>43068</v>
+      </c>
+      <c r="B238" s="5">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D238" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G238" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H238" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:修正索罗斯假死效果与新地图区分开。(修改文件:Effect.bin
+Effect.csv)</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A239" s="13"/>
+      <c r="B239" s="5"/>
+      <c r="D239" s="16"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="7"/>
+    </row>
+    <row r="240" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A240" s="13">
+        <v>43069</v>
+      </c>
+      <c r="B240" s="5">
+        <v>1</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D240" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G240" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H240" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:调整小地图。(修改文件:Moba_004Dark.png
+Moba_004Dark.png.meta
+Moba_004Light.png
+Moba_004Light.png.meta)</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A241" s="13">
+        <f t="shared" si="26"/>
+        <v>43069</v>
+      </c>
+      <c r="B241" s="5">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D241" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G241" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H241" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:调整小地图怪物打点。(修改文件:MinimapStaticIcon.csv)</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A242" s="13"/>
+      <c r="B242" s="5"/>
+      <c r="D242" s="17"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="7"/>
+    </row>
+    <row r="243" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A243" s="13">
+        <v>43070</v>
+      </c>
+      <c r="B243" s="5">
+        <v>1</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D243" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G243" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H243" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:修改吃鸡地图假死会被移除。(修改文件:Buff.csv
+Buff.xml
+Effect.bin
+Effect.csv)</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A244" s="13">
+        <f t="shared" si="26"/>
+        <v>43070</v>
+      </c>
+      <c r="B244" s="5">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D244" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G244" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H244" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:屏蔽选取巨盾勇士等肉盾英雄。(修改文件:MatchRoom.csv)</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A245" s="13">
+        <f t="shared" si="26"/>
+        <v>43070</v>
+      </c>
+      <c r="B245" s="5">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D245" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G245" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H245" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:修正复活祭坛坐标。(修改文件:MinimapStaticIcon.csv)</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A246" s="13"/>
+      <c r="B246" s="5"/>
+      <c r="D246" s="17"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="7"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A247" s="13">
+        <v>43073</v>
+      </c>
+      <c r="B247" s="5">
+        <v>1</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D247" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G247" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H247" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:吃鸡地图禁选英雄。(修改文件:MatchRoom.csv)</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A248" s="13"/>
+      <c r="B248" s="5"/>
+      <c r="D248" s="17"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="6"/>
+      <c r="H248" s="7"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A249" s="13">
+        <v>43074</v>
+      </c>
+      <c r="B249" s="5">
+        <v>1</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D249" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G249" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H249" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:吃鸡地图禁选英雄。(修改文件:MatchRoom.csv)</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A250" s="13"/>
+      <c r="B250" s="5"/>
+      <c r="D250" s="17"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="6"/>
+      <c r="H250" s="7"/>
+    </row>
+    <row r="251" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A251" s="13">
+        <v>43078</v>
+      </c>
+      <c r="B251" s="5">
+        <v>1</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D251" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G251" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H251" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:取消吃鸡地图所有天赋学习的主动技能，新增晕眩技能。(修改文件:TalentEffect.csv
+TalentLearn.csv)</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A252" s="13"/>
+      <c r="B252" s="5"/>
+      <c r="D252" s="16"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="5"/>
+      <c r="G252" s="6"/>
+      <c r="H252" s="7"/>
+    </row>
+    <row r="253" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="A253" s="13">
+        <v>43081</v>
+      </c>
+      <c r="B253" s="5">
+        <v>1</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D253" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G253" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H253" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:调整摩托车玩法。(修改文件:Buff.csv
+Buff.xml
+Effect.bin
+Effect.csv
+PersonModel.csv
+Spell.bin
+Spell.csv
+SpellLogic.csv
+TalentEffect.csv
+TalentLearn.csv)</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="120" x14ac:dyDescent="0.15">
+      <c r="A254" s="13">
+        <f t="shared" si="26"/>
+        <v>43081</v>
+      </c>
+      <c r="B254" s="5">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D254" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G254" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H254" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:调整魔王配置。(修改文件:Buff.csv
+Buff.xml
+Effect.bin
+Effect.csv
+PersonModel.csv
+Spell.bin
+Spell.csv
+SpellLogic.csv
+TalentEffect.csv
+TalentLearn.csv)</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A255" s="13"/>
+      <c r="B255" s="5"/>
+      <c r="D255" s="16"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="6"/>
+      <c r="H255" s="7"/>
+    </row>
+    <row r="256" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A256" s="13">
+        <v>43085</v>
+      </c>
+      <c r="B256" s="5">
+        <v>1</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D256" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G256" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H256" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:大龙禁止相关天赋等效果。(修改文件:Buff.csv
+Buff.xml
+Effect.bin
+Effect.csv)</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A257" s="13"/>
+      <c r="B257" s="5"/>
+      <c r="D257" s="16"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="7"/>
+    </row>
+    <row r="258" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="A258" s="13">
+        <v>43088</v>
+      </c>
+      <c r="B258" s="5">
+        <v>1</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D258" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G258" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H258" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:整状态文字提示，调整魔王时间。(修改文件:Buff.csv
+Buff.xml
+Effect.bin
+Effect.csv
+SystemMessage.csv)</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A259" s="13"/>
+      <c r="B259" s="5"/>
+      <c r="D259" s="16"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="6"/>
+      <c r="H259" s="7"/>
+    </row>
+    <row r="260" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A260" s="13">
+        <v>43090</v>
+      </c>
+      <c r="B260" s="5">
+        <v>1</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D260" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G260" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H260" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:调整时空大击中龙母大后导致BUG。(修改文件:Buff.csv
+Buff.xml)</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A261" s="13"/>
+      <c r="B261" s="5"/>
+      <c r="D261" s="16"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="6"/>
+      <c r="H261" s="7"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A262" s="13">
+        <v>43092</v>
+      </c>
+      <c r="B262" s="5">
+        <v>1</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D262" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E179" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G179" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H179" s="7" t="str">
-        <f t="shared" si="23"/>
+      <c r="E262" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G262" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H262" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:调整宇宙战警。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A263" s="13"/>
+      <c r="B263" s="5"/>
+      <c r="D263" s="17"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="6"/>
+      <c r="H263" s="7"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A264" s="13">
+        <v>43094</v>
+      </c>
+      <c r="B264" s="5">
+        <v>1</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D264" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G264" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H264" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:调整所有职业的天赋描述。(修改文件:HeroTalentConfig.csv)</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A265" s="13">
+        <f t="shared" si="26"/>
+        <v>43094</v>
+      </c>
+      <c r="B265" s="5">
+        <f t="shared" ref="B265:B302" si="28">B264+1</f>
+        <v>2</v>
+      </c>
+      <c r="D265" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G265" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H265" s="7" t="str">
+        <f t="shared" si="27"/>
         <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A180" s="13">
-        <v>43040</v>
-      </c>
-      <c r="B180" s="5">
-        <f t="shared" si="24"/>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A266" s="13">
+        <f t="shared" si="26"/>
+        <v>43094</v>
+      </c>
+      <c r="B266" s="5">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="D266" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G266" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H266" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A267" s="13">
+        <f t="shared" si="26"/>
+        <v>43094</v>
+      </c>
+      <c r="B267" s="5">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D267" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E267" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G267" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H267" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A268" s="13">
+        <f t="shared" si="26"/>
+        <v>43094</v>
+      </c>
+      <c r="B268" s="5">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D268" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G268" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H268" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A269" s="13">
+        <f t="shared" si="26"/>
+        <v>43094</v>
+      </c>
+      <c r="B269" s="5">
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
-      <c r="D180" s="5" t="s">
+      <c r="D269" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E180" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F180" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G180" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H180" s="7" t="str">
-        <f t="shared" si="23"/>
+      <c r="E269" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G269" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H269" s="7" t="str">
+        <f t="shared" si="27"/>
         <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A181" s="13">
-        <v>43040</v>
-      </c>
-      <c r="B181" s="5">
-        <f t="shared" si="24"/>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A270" s="13">
+        <f t="shared" si="26"/>
+        <v>43094</v>
+      </c>
+      <c r="B270" s="5">
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
-      <c r="D181" s="5" t="s">
+      <c r="D270" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E181" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F181" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G181" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H181" s="7" t="str">
-        <f t="shared" si="23"/>
+      <c r="E270" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G270" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H270" s="7" t="str">
+        <f t="shared" si="27"/>
         <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A182" s="13">
-        <v>43040</v>
-      </c>
-      <c r="B182" s="5">
-        <f t="shared" si="24"/>
-        <v>8</v>
-      </c>
-      <c r="D182" s="5" t="s">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A271" s="13">
+        <f t="shared" si="26"/>
+        <v>43094</v>
+      </c>
+      <c r="B271" s="5">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="D271" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E182" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G182" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H182" s="7" t="str">
-        <f t="shared" si="23"/>
+      <c r="E271" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G271" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H271" s="7" t="str">
+        <f t="shared" si="27"/>
         <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A183" s="13">
-        <v>43040</v>
-      </c>
-      <c r="B183" s="5">
-        <f t="shared" si="24"/>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A272" s="13">
+        <f t="shared" si="26"/>
+        <v>43094</v>
+      </c>
+      <c r="B272" s="5">
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
-      <c r="D183" s="5" t="s">
+      <c r="D272" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E183" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F183" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G183" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H183" s="7" t="str">
-        <f t="shared" si="23"/>
+      <c r="E272" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G272" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H272" s="7" t="str">
+        <f t="shared" si="27"/>
         <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A184" s="13">
-        <v>43040</v>
-      </c>
-      <c r="B184" s="5">
-        <f t="shared" si="24"/>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A273" s="13">
+        <f t="shared" si="26"/>
+        <v>43094</v>
+      </c>
+      <c r="B273" s="5">
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
-      <c r="D184" s="5" t="s">
+      <c r="D273" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E184" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F184" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G184" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H184" s="7" t="str">
-        <f t="shared" si="23"/>
+      <c r="E273" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G273" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H273" s="7" t="str">
+        <f t="shared" si="27"/>
         <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A185" s="13">
-        <v>43040</v>
-      </c>
-      <c r="B185" s="5">
-        <f t="shared" si="24"/>
-        <v>11</v>
-      </c>
-      <c r="D185" s="5" t="s">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A274" s="13">
+        <f t="shared" si="26"/>
+        <v>43094</v>
+      </c>
+      <c r="B274" s="5">
+        <f t="shared" si="28"/>
+        <v>11</v>
+      </c>
+      <c r="D274" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E185" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F185" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G185" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H185" s="7" t="str">
-        <f t="shared" si="23"/>
+      <c r="E274" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G274" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H274" s="7" t="str">
+        <f t="shared" si="27"/>
         <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A186" s="13">
-        <v>43040</v>
-      </c>
-      <c r="B186" s="5">
-        <f t="shared" si="24"/>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A275" s="13">
+        <f t="shared" si="26"/>
+        <v>43094</v>
+      </c>
+      <c r="B275" s="5">
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
-      <c r="D186" s="5" t="s">
+      <c r="D275" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E186" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F186" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G186" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H186" s="7" t="str">
-        <f t="shared" si="23"/>
+      <c r="E275" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G275" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H275" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A276" s="13">
+        <f t="shared" si="26"/>
+        <v>43094</v>
+      </c>
+      <c r="B276" s="5">
+        <f t="shared" si="28"/>
+        <v>13</v>
+      </c>
+      <c r="D276" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G276" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H276" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A277" s="13">
+        <f t="shared" si="26"/>
+        <v>43094</v>
+      </c>
+      <c r="B277" s="5">
+        <f t="shared" si="28"/>
+        <v>14</v>
+      </c>
+      <c r="D277" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G277" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H277" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A278" s="13">
+        <f t="shared" si="26"/>
+        <v>43094</v>
+      </c>
+      <c r="B278" s="5">
+        <f t="shared" si="28"/>
+        <v>15</v>
+      </c>
+      <c r="D278" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F278" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G278" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H278" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A279" s="13">
+        <f t="shared" si="26"/>
+        <v>43094</v>
+      </c>
+      <c r="B279" s="5">
+        <f t="shared" si="28"/>
+        <v>16</v>
+      </c>
+      <c r="D279" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F279" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G279" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H279" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A280" s="13">
+        <f t="shared" ref="A280:A302" si="29">A279</f>
+        <v>43094</v>
+      </c>
+      <c r="B280" s="5">
+        <f t="shared" si="28"/>
+        <v>17</v>
+      </c>
+      <c r="D280" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G280" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H280" s="7" t="str">
+        <f t="shared" ref="H280:H302" si="30">CONCATENATE(F280,"","【",E280,"】[",G280,"]:",C280,"。(修改文件:",D280,")")</f>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A281" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B281" s="5">
+        <f t="shared" si="28"/>
+        <v>18</v>
+      </c>
+      <c r="D281" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E281" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F281" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G281" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H281" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A282" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B282" s="5">
+        <f t="shared" si="28"/>
+        <v>19</v>
+      </c>
+      <c r="D282" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G282" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H282" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A283" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B283" s="5">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="D283" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E283" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F283" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G283" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H283" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A284" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B284" s="5">
+        <f t="shared" si="28"/>
+        <v>21</v>
+      </c>
+      <c r="D284" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G284" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H284" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A285" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B285" s="5">
+        <f t="shared" si="28"/>
+        <v>22</v>
+      </c>
+      <c r="D285" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F285" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G285" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H285" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A286" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B286" s="5">
+        <f t="shared" si="28"/>
+        <v>23</v>
+      </c>
+      <c r="D286" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F286" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G286" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H286" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A287" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B287" s="5">
+        <f t="shared" si="28"/>
+        <v>24</v>
+      </c>
+      <c r="D287" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E287" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F287" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G287" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H287" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A288" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B288" s="5">
+        <f t="shared" si="28"/>
+        <v>25</v>
+      </c>
+      <c r="D288" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F288" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G288" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H288" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A289" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B289" s="5">
+        <f t="shared" si="28"/>
+        <v>26</v>
+      </c>
+      <c r="D289" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E289" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F289" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G289" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H289" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A290" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B290" s="5">
+        <f t="shared" si="28"/>
+        <v>27</v>
+      </c>
+      <c r="D290" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F290" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G290" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H290" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A291" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B291" s="5">
+        <f t="shared" si="28"/>
+        <v>28</v>
+      </c>
+      <c r="D291" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E291" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F291" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G291" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H291" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A292" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B292" s="5">
+        <f t="shared" si="28"/>
+        <v>29</v>
+      </c>
+      <c r="D292" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F292" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G292" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H292" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A293" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B293" s="5">
+        <f t="shared" si="28"/>
+        <v>30</v>
+      </c>
+      <c r="D293" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F293" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G293" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H293" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A294" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B294" s="5">
+        <f t="shared" si="28"/>
+        <v>31</v>
+      </c>
+      <c r="D294" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F294" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G294" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H294" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A295" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B295" s="5">
+        <f t="shared" si="28"/>
+        <v>32</v>
+      </c>
+      <c r="D295" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E295" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F295" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G295" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H295" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A296" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B296" s="5">
+        <f t="shared" si="28"/>
+        <v>33</v>
+      </c>
+      <c r="D296" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F296" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G296" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H296" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A297" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B297" s="5">
+        <f t="shared" si="28"/>
+        <v>34</v>
+      </c>
+      <c r="D297" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E297" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F297" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G297" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H297" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A298" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B298" s="5">
+        <f t="shared" si="28"/>
+        <v>35</v>
+      </c>
+      <c r="D298" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F298" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G298" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H298" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A299" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B299" s="5">
+        <f t="shared" si="28"/>
+        <v>36</v>
+      </c>
+      <c r="D299" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E299" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G299" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H299" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A300" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B300" s="5">
+        <f t="shared" si="28"/>
+        <v>37</v>
+      </c>
+      <c r="D300" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G300" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H300" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A301" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B301" s="5">
+        <f t="shared" si="28"/>
+        <v>38</v>
+      </c>
+      <c r="D301" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E301" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G301" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H301" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A302" s="13">
+        <f t="shared" si="29"/>
+        <v>43094</v>
+      </c>
+      <c r="B302" s="5">
+        <f t="shared" si="28"/>
+        <v>39</v>
+      </c>
+      <c r="D302" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G302" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H302" s="7" t="str">
+        <f t="shared" si="30"/>
         <v>陈伍宏【全版本】[内部知晓]:。(修改文件:Spell.csv;Spell.bin)</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JC2:JC34 SY2:SY34 ACU2:ACU34 AMQ2:AMQ34 AWM2:AWM34 BGI2:BGI34 BQE2:BQE34 CAA2:CAA34 CJW2:CJW34 CTS2:CTS34 DDO2:DDO34 DNK2:DNK34 DXG2:DXG34 EHC2:EHC34 EQY2:EQY34 FAU2:FAU34 FKQ2:FKQ34 FUM2:FUM34 GEI2:GEI34 GOE2:GOE34 GYA2:GYA34 HHW2:HHW34 HRS2:HRS34 IBO2:IBO34 ILK2:ILK34 IVG2:IVG34 JFC2:JFC34 JOY2:JOY34 JYU2:JYU34 KIQ2:KIQ34 KSM2:KSM34 LCI2:LCI34 LME2:LME34 LWA2:LWA34 MFW2:MFW34 MPS2:MPS34 MZO2:MZO34 NJK2:NJK34 NTG2:NTG34 ODC2:ODC34 OMY2:OMY34 OWU2:OWU34 PGQ2:PGQ34 PQM2:PQM34 QAI2:QAI34 QKE2:QKE34 QUA2:QUA34 RDW2:RDW34 RNS2:RNS34 RXO2:RXO34 SHK2:SHK34 SRG2:SRG34 TBC2:TBC34 TKY2:TKY34 TUU2:TUU34 UEQ2:UEQ34 UOM2:UOM34 UYI2:UYI34 VIE2:VIE34 VSA2:VSA34 WBW2:WBW34 WLS2:WLS34 WVO2:WVO34 G2:G186">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JC2:JC34 SY2:SY34 ACU2:ACU34 AMQ2:AMQ34 AWM2:AWM34 BGI2:BGI34 BQE2:BQE34 CAA2:CAA34 CJW2:CJW34 CTS2:CTS34 DDO2:DDO34 DNK2:DNK34 DXG2:DXG34 EHC2:EHC34 EQY2:EQY34 FAU2:FAU34 FKQ2:FKQ34 FUM2:FUM34 GEI2:GEI34 GOE2:GOE34 GYA2:GYA34 HHW2:HHW34 HRS2:HRS34 IBO2:IBO34 ILK2:ILK34 IVG2:IVG34 JFC2:JFC34 JOY2:JOY34 JYU2:JYU34 KIQ2:KIQ34 KSM2:KSM34 LCI2:LCI34 LME2:LME34 LWA2:LWA34 MFW2:MFW34 MPS2:MPS34 MZO2:MZO34 NJK2:NJK34 NTG2:NTG34 ODC2:ODC34 OMY2:OMY34 OWU2:OWU34 PGQ2:PGQ34 PQM2:PQM34 QAI2:QAI34 QKE2:QKE34 QUA2:QUA34 RDW2:RDW34 RNS2:RNS34 RXO2:RXO34 SHK2:SHK34 SRG2:SRG34 TBC2:TBC34 TKY2:TKY34 TUU2:TUU34 UEQ2:UEQ34 UOM2:UOM34 UYI2:UYI34 VIE2:VIE34 VSA2:VSA34 WBW2:WBW34 WLS2:WLS34 WVO2:WVO34 G2:G302">
       <formula1>$Q$2:$Q$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JA2:JA34 SW2:SW34 ACS2:ACS34 AMO2:AMO34 AWK2:AWK34 BGG2:BGG34 BQC2:BQC34 BZY2:BZY34 CJU2:CJU34 CTQ2:CTQ34 DDM2:DDM34 DNI2:DNI34 DXE2:DXE34 EHA2:EHA34 EQW2:EQW34 FAS2:FAS34 FKO2:FKO34 FUK2:FUK34 GEG2:GEG34 GOC2:GOC34 GXY2:GXY34 HHU2:HHU34 HRQ2:HRQ34 IBM2:IBM34 ILI2:ILI34 IVE2:IVE34 JFA2:JFA34 JOW2:JOW34 JYS2:JYS34 KIO2:KIO34 KSK2:KSK34 LCG2:LCG34 LMC2:LMC34 LVY2:LVY34 MFU2:MFU34 MPQ2:MPQ34 MZM2:MZM34 NJI2:NJI34 NTE2:NTE34 ODA2:ODA34 OMW2:OMW34 OWS2:OWS34 PGO2:PGO34 PQK2:PQK34 QAG2:QAG34 QKC2:QKC34 QTY2:QTY34 RDU2:RDU34 RNQ2:RNQ34 RXM2:RXM34 SHI2:SHI34 SRE2:SRE34 TBA2:TBA34 TKW2:TKW34 TUS2:TUS34 UEO2:UEO34 UOK2:UOK34 UYG2:UYG34 VIC2:VIC34 VRY2:VRY34 WBU2:WBU34 WLQ2:WLQ34 WVM2:WVM34 E2:E186">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JA2:JA34 SW2:SW34 ACS2:ACS34 AMO2:AMO34 AWK2:AWK34 BGG2:BGG34 BQC2:BQC34 BZY2:BZY34 CJU2:CJU34 CTQ2:CTQ34 DDM2:DDM34 DNI2:DNI34 DXE2:DXE34 EHA2:EHA34 EQW2:EQW34 FAS2:FAS34 FKO2:FKO34 FUK2:FUK34 GEG2:GEG34 GOC2:GOC34 GXY2:GXY34 HHU2:HHU34 HRQ2:HRQ34 IBM2:IBM34 ILI2:ILI34 IVE2:IVE34 JFA2:JFA34 JOW2:JOW34 JYS2:JYS34 KIO2:KIO34 KSK2:KSK34 LCG2:LCG34 LMC2:LMC34 LVY2:LVY34 MFU2:MFU34 MPQ2:MPQ34 MZM2:MZM34 NJI2:NJI34 NTE2:NTE34 ODA2:ODA34 OMW2:OMW34 OWS2:OWS34 PGO2:PGO34 PQK2:PQK34 QAG2:QAG34 QKC2:QKC34 QTY2:QTY34 RDU2:RDU34 RNQ2:RNQ34 RXM2:RXM34 SHI2:SHI34 SRE2:SRE34 TBA2:TBA34 TKW2:TKW34 TUS2:TUS34 UEO2:UEO34 UOK2:UOK34 UYG2:UYG34 VIC2:VIC34 VRY2:VRY34 WBU2:WBU34 WLQ2:WLQ34 WVM2:WVM34 E2:E302">
       <formula1>$O$2:$O$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 JA1 SW1 ACS1 AMO1 AWK1 BGG1 BQC1 BZY1 CJU1 CTQ1 DDM1 DNI1 DXE1 EHA1 EQW1 FAS1 FKO1 FUK1 GEG1 GOC1 GXY1 HHU1 HRQ1 IBM1 ILI1 IVE1 JFA1 JOW1 JYS1 KIO1 KSK1 LCG1 LMC1 LVY1 MFU1 MPQ1 MZM1 NJI1 NTE1 ODA1 OMW1 OWS1 PGO1 PQK1 QAG1 QKC1 QTY1 RDU1 RNQ1 RXM1 SHI1 SRE1 TBA1 TKW1 TUS1 UEO1 UOK1 UYG1 VIC1 VRY1 WBU1 WLQ1 WVM1">
